--- a/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
+++ b/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
@@ -725,7 +725,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45289</v>
+        <v>45302</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -894,15 +894,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
+++ b/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
@@ -725,7 +725,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45302</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -894,15 +894,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
+++ b/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
@@ -725,7 +725,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>

--- a/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
+++ b/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
@@ -725,7 +725,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="C32" s="18" t="n"/>
       <c r="D32" s="9" t="n">
-        <v>5301</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="19">
@@ -816,7 +816,7 @@
       </c>
       <c r="C33" s="18" t="n"/>
       <c r="D33" s="10" t="n">
-        <v>5909.76</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="19">
@@ -832,7 +832,7 @@
       </c>
       <c r="C34" s="18" t="n"/>
       <c r="D34" s="9" t="n">
-        <v>6714.6</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="19">
@@ -848,7 +848,7 @@
       </c>
       <c r="C35" s="18" t="n"/>
       <c r="D35" s="10" t="n">
-        <v>8356.200000000001</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="19">
@@ -864,7 +864,7 @@
       </c>
       <c r="C36" s="18" t="n"/>
       <c r="D36" s="9" t="n">
-        <v>8652.6</v>
+        <v>11960</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="19">
@@ -880,7 +880,7 @@
       </c>
       <c r="C37" s="18" t="n"/>
       <c r="D37" s="10" t="n">
-        <v>9108.6</v>
+        <v>12590</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" s="19">
@@ -894,15 +894,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
+++ b/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
@@ -725,7 +725,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>

--- a/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
+++ b/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
@@ -725,7 +725,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -894,15 +894,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
+++ b/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
@@ -725,7 +725,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -894,15 +894,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
+++ b/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
@@ -725,7 +725,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -894,15 +894,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
+++ b/server/LISTAS/ma/PARAGOLPES PARA PUERTA DISMAY.xlsx
@@ -725,7 +725,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="C32" s="18" t="n"/>
       <c r="D32" s="9" t="n">
-        <v>5301</v>
+        <v>8423</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="19">
@@ -816,7 +816,7 @@
       </c>
       <c r="C33" s="18" t="n"/>
       <c r="D33" s="10" t="n">
-        <v>5909.76</v>
+        <v>9386</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="19">
@@ -832,7 +832,7 @@
       </c>
       <c r="C34" s="18" t="n"/>
       <c r="D34" s="9" t="n">
-        <v>6714.6</v>
+        <v>10671</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="19">
@@ -848,7 +848,7 @@
       </c>
       <c r="C35" s="18" t="n"/>
       <c r="D35" s="10" t="n">
-        <v>8356.200000000001</v>
+        <v>13277</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="19">
@@ -864,7 +864,7 @@
       </c>
       <c r="C36" s="18" t="n"/>
       <c r="D36" s="9" t="n">
-        <v>8652.6</v>
+        <v>13758</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="19">
@@ -880,7 +880,7 @@
       </c>
       <c r="C37" s="18" t="n"/>
       <c r="D37" s="10" t="n">
-        <v>9108.6</v>
+        <v>14462</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" s="19">
@@ -894,15 +894,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
